--- a/docs/shrcore/shr-core-ResearchStudy-model.xlsx
+++ b/docs/shrcore/shr-core-ResearchStudy-model.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="124">
   <si>
     <t>Path</t>
   </si>
@@ -298,6 +298,9 @@
   </si>
   <si>
     <t>The country, state or other region taking legal responsibility.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/jurisdiction</t>
   </si>
   <si>
     <t>shr-core-ResearchStudy-model.descriptionMarkdown</t>
@@ -554,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ29"/>
+  <dimension ref="A1:AI29"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2406,13 +2409,11 @@
         <v>36</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="X19" s="2"/>
       <c r="Y19" t="s" s="2">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>36</v>
@@ -2447,7 +2448,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2470,13 +2471,13 @@
         <v>36</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2527,7 +2528,7 @@
         <v>36</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>37</v>
@@ -2544,7 +2545,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2567,13 +2568,13 @@
         <v>36</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -2609,7 +2610,7 @@
         <v>36</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>36</v>
@@ -2624,7 +2625,7 @@
         <v>36</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>37</v>
@@ -2641,7 +2642,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -2664,13 +2665,13 @@
         <v>36</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -2706,7 +2707,7 @@
         <v>36</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>36</v>
@@ -2721,7 +2722,7 @@
         <v>36</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>37</v>
@@ -2738,7 +2739,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -2761,13 +2762,13 @@
         <v>36</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -2818,7 +2819,7 @@
         <v>36</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>37</v>
@@ -2835,7 +2836,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -2858,13 +2859,13 @@
         <v>36</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -2900,7 +2901,7 @@
         <v>36</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>36</v>
@@ -2915,7 +2916,7 @@
         <v>36</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>37</v>
@@ -2932,7 +2933,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -2955,13 +2956,13 @@
         <v>36</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3012,7 +3013,7 @@
         <v>36</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>37</v>
@@ -3029,7 +3030,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3055,10 +3056,10 @@
         <v>45</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3109,7 +3110,7 @@
         <v>36</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>37</v>
@@ -3126,7 +3127,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3149,13 +3150,13 @@
         <v>36</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3206,7 +3207,7 @@
         <v>36</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>37</v>
@@ -3223,7 +3224,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3246,13 +3247,13 @@
         <v>36</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3303,7 +3304,7 @@
         <v>36</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>37</v>
@@ -3320,7 +3321,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3343,13 +3344,13 @@
         <v>36</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -3400,7 +3401,7 @@
         <v>36</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>37</v>
